--- a/biology/Zoologie/Evacanthinae/Evacanthinae.xlsx
+++ b/biology/Zoologie/Evacanthinae/Evacanthinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Evacanthinae sont une sous-famille d'insectes de l'ordre des Hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Cicadellidae.
 Ces insectes communément appelés cicadelles, sont des insectes sauteurs et piqueurs et ils se nourrissent de la sève des végétaux grâce à leur rostre.
@@ -512,9 +524,11 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (1er nov 2013)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (1er nov 2013)
 Balbillini Baker, 1923
 Evacanthini Metcalf, 1939
 Nirvanini Baker, 1923
@@ -548,7 +562,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A compléter...
 Evacanthus Le Peletier &amp; Serville, 1825
